--- a/src/assets/zxsj_mb/zxtb_k232_glory.xlsx
+++ b/src/assets/zxsj_mb/zxtb_k232_glory.xlsx
@@ -43,7 +43,7 @@
     <t>文明单位</t>
   </si>
   <si>
-    <t>省部级</t>
+    <t>省部级及以上</t>
   </si>
   <si>
     <t>教育部</t>
@@ -58,7 +58,7 @@
     <t>上海市教育委员会</t>
   </si>
   <si>
-    <t>区级</t>
+    <t>行业</t>
   </si>
 </sst>
 </file>
@@ -66,8 +66,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -89,7 +89,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,87 +154,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,23 +209,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,43 +241,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,25 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,109 +409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,8 +453,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,17 +498,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,41 +541,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -555,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,133 +567,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1032,7 +1032,9 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1041,7 +1043,7 @@
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="22.8333333333333" customWidth="1"/>
-    <col min="5" max="5" width="11.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="17.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="23.2222222222222" customWidth="1"/>
     <col min="7" max="7" width="11.6666666666667" style="1" customWidth="1"/>
   </cols>
@@ -1071,7 +1073,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:7">
       <c r="A2" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B2" s="3">
         <v>51252</v>
@@ -1094,7 +1096,7 @@
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:7">
       <c r="A3" s="3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B3" s="3">
         <v>51252</v>
@@ -1117,7 +1119,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:7">
       <c r="A4" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B4" s="3">
         <v>51252</v>
@@ -1137,6 +1139,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+      <formula1>"省部级及以上,市级,行业,其它"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
